--- a/media/upload/modelos/modelo_anexo38.xlsx
+++ b/media/upload/modelos/modelo_anexo38.xlsx
@@ -165,10 +165,10 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9336734693878"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>

--- a/media/upload/modelos/modelo_anexo38.xlsx
+++ b/media/upload/modelos/modelo_anexo38.xlsx
@@ -5,52 +5,48 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="963" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">NumeroLote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DescricaoLote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OrdemClassificatoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ValorProposta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NomeParticipante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TipoDocumento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumeroDocumento</t>
+    <t>NumeroLote</t>
+  </si>
+  <si>
+    <t>DescricaoLote</t>
+  </si>
+  <si>
+    <t>OrdemClassificatoria</t>
+  </si>
+  <si>
+    <t>ValorProposta</t>
+  </si>
+  <si>
+    <t>NomeParticipante</t>
+  </si>
+  <si>
+    <t>TipoDocumento</t>
+  </si>
+  <si>
+    <t>NumeroDocumento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -124,11 +120,19 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -137,7 +141,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -165,41 +169,41 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.65"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
